--- a/XMLAttributes.xlsx
+++ b/XMLAttributes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\PaymentStand\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1CA59ED-8E21-4C3E-BC8F-2FCF4DC454CC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DAEE15D-EDCC-45AB-9ECA-182E18BA4A4D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="600" windowWidth="21570" windowHeight="7980" xr2:uid="{5EA51A1E-9811-446B-9F66-61F71C01AC94}"/>
   </bookViews>
@@ -563,8 +563,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B8D8406-ECBC-4938-88A4-E9D19EFFAAB5}">
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -612,13 +612,13 @@
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D3" t="s">
@@ -629,13 +629,13 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D4" t="s">
@@ -646,13 +646,13 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D5" t="s">
@@ -663,13 +663,13 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D6" t="s">
@@ -703,10 +703,10 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="2" t="s">
         <v>16</v>
       </c>
     </row>
@@ -739,7 +739,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C17" t="s">
+      <c r="C17" s="2" t="s">
         <v>43</v>
       </c>
     </row>

--- a/XMLAttributes.xlsx
+++ b/XMLAttributes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\PaymentStand\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DAEE15D-EDCC-45AB-9ECA-182E18BA4A4D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68C06C89-4D46-46D8-9999-67657B07FDF7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="21570" windowHeight="7980" xr2:uid="{5EA51A1E-9811-446B-9F66-61F71C01AC94}"/>
+    <workbookView xWindow="0" yWindow="1200" windowWidth="21570" windowHeight="7980" xr2:uid="{5EA51A1E-9811-446B-9F66-61F71C01AC94}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="60">
   <si>
     <t>ConfirmRequest</t>
   </si>
@@ -178,6 +178,33 @@
   </si>
   <si>
     <t>CancelReason</t>
+  </si>
+  <si>
+    <t>PC_ID</t>
+  </si>
+  <si>
+    <t>QARoot</t>
+  </si>
+  <si>
+    <t>PayCode</t>
+  </si>
+  <si>
+    <t>PaySumma</t>
+  </si>
+  <si>
+    <t>SessionID</t>
+  </si>
+  <si>
+    <t>CountAttr</t>
+  </si>
+  <si>
+    <t>&lt;AttrRecord&gt;</t>
+  </si>
+  <si>
+    <t>PayDate</t>
+  </si>
+  <si>
+    <t>PayRest</t>
   </si>
 </sst>
 </file>
@@ -237,11 +264,11 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -561,10 +588,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B8D8406-ECBC-4938-88A4-E9D19EFFAAB5}">
-  <dimension ref="A1:F52"/>
+  <dimension ref="A1:F65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -582,465 +609,561 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E2" t="s">
         <v>0</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" t="s">
+        <v>0</v>
+      </c>
+      <c r="F13" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B15" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C15" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D15" t="s">
         <v>7</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F15" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B16" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C16" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D16" t="s">
         <v>9</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F16" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B17" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C17" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D17" t="s">
         <v>8</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F17" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B18" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C18" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D18" t="s">
         <v>11</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F18" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
         <v>12</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D19" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C17" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>4</v>
-      </c>
-      <c r="B20" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20" t="s">
-        <v>2</v>
-      </c>
-      <c r="D20" t="s">
-        <v>3</v>
-      </c>
-      <c r="E20" t="s">
-        <v>0</v>
-      </c>
-      <c r="F20" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>22</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>22</v>
+      <c r="A23" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>23</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>23</v>
+        <v>10</v>
+      </c>
+      <c r="D24" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B25" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>30</v>
+      <c r="B25" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>25</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>26</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
-        <v>27</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
-        <v>28</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>28</v>
+      <c r="C29" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
-        <v>29</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>29</v>
-      </c>
+      <c r="A31" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>4</v>
+      </c>
       <c r="B32" t="s">
-        <v>12</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>12</v>
+        <v>5</v>
+      </c>
+      <c r="C32" t="s">
+        <v>2</v>
+      </c>
+      <c r="D32" t="s">
+        <v>3</v>
+      </c>
+      <c r="E32" t="s">
+        <v>0</v>
+      </c>
+      <c r="F32" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>18</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>18</v>
+        <v>7</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>31</v>
+        <v>9</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C36" s="3" t="s">
-        <v>40</v>
+      <c r="B36" t="s">
+        <v>23</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C37" s="3" t="s">
-        <v>32</v>
+      <c r="B37" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>25</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>26</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>27</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>28</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>29</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>12</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>18</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>39</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C48" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C49" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
         <v>33</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C50" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="D50" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C39" s="2" t="s">
+    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C51" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D39" s="2" t="s">
+      <c r="D51" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E39" s="2" t="s">
+      <c r="E51" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F39" s="2" t="s">
+      <c r="F51" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D40" s="2" t="s">
+    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D52" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E40" s="2" t="s">
+      <c r="E52" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F40" s="2" t="s">
+      <c r="F52" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C41" s="2" t="s">
+    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C53" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D41" s="2" t="s">
+      <c r="D53" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D42" s="2" t="s">
+    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D54" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E42" s="2" t="s">
+      <c r="E54" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F42" s="2" t="s">
+      <c r="F54" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D43" s="2" t="s">
+    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D55" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E43" s="3"/>
-      <c r="F43" s="2" t="s">
+      <c r="E55" s="2"/>
+      <c r="F55" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E44" s="2" t="s">
+    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E56" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F44" s="2" t="s">
+      <c r="F56" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E45" s="2" t="s">
+    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E57" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B46" s="2" t="s">
+    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B58" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B47" s="2" t="s">
+    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B59" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B48" s="2" t="s">
+    <row r="60" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B60" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C49" s="2" t="s">
+    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C61" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C50" s="2" t="s">
+    <row r="62" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C62" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B51" s="2" t="s">
+    <row r="63" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B63" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C51" s="2" t="s">
+      <c r="C63" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D51" s="2" t="s">
+      <c r="D63" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C52" s="2"/>
-      <c r="E52" s="2" t="s">
+    <row r="64" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C64" s="1"/>
+      <c r="E64" s="1" t="s">
         <v>50</v>
       </c>
     </row>
+    <row r="65" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C65" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A19:F19"/>
+  <mergeCells count="3">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A31:F31"/>
+    <mergeCell ref="A14:F14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
